--- a/Turpotok_03-2025.xlsx
+++ b/Turpotok_03-2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Российская Федерация</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Чукотский автономный округ</t>
   </si>
   <si>
-    <t>единица</t>
-  </si>
-  <si>
     <t>январь-март</t>
   </si>
   <si>
@@ -314,71 +311,6 @@
   </si>
   <si>
     <t>январь</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Без учета статистической информации по Донецкой Народной Республике (ДНР), Луганской Народной Республике (ЛНР), Запорожской и Херсонской областям
-</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Без учета временно эвакуированных граждан</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Оценка туристского потока (месячные (оперативные) данные)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>(по числу поездок)</t>
   </si>
   <si>
     <r>
@@ -401,13 +333,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,40 +396,15 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -511,23 +417,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -589,22 +478,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -629,43 +517,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="2"/>
-    <cellStyle name="Гиперссылка" xfId="5" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 10" xfId="3"/>
-    <cellStyle name="Обычный 2" xfId="6"/>
+    <cellStyle name="Обычный 2" xfId="5"/>
     <cellStyle name="Обычный 2 2" xfId="4"/>
-    <cellStyle name="Обычный 3" xfId="8"/>
-    <cellStyle name="Обычный 4" xfId="10"/>
-    <cellStyle name="Обычный 5" xfId="11"/>
-    <cellStyle name="Обычный 6" xfId="12"/>
+    <cellStyle name="Обычный 3" xfId="7"/>
+    <cellStyle name="Обычный 4" xfId="9"/>
+    <cellStyle name="Обычный 5" xfId="10"/>
+    <cellStyle name="Обычный 6" xfId="11"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
-    <cellStyle name="Финансовый 2" xfId="7"/>
-    <cellStyle name="Финансовый 3" xfId="9"/>
+    <cellStyle name="Финансовый 2" xfId="6"/>
+    <cellStyle name="Финансовый 3" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -678,59 +553,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="387480" cy="417267"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:duotone>
-            <a:prstClr val="black"/>
-            <a:srgbClr val="FF0000">
-              <a:tint val="45000"/>
-              <a:satMod val="400000"/>
-            </a:srgbClr>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3314700" y="0"/>
-          <a:ext cx="387480" cy="417267"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1024,7 +846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,34 +860,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10845937</v>
+      </c>
+      <c r="C3" s="7">
+        <v>21217506</v>
+      </c>
+      <c r="D3" s="7">
+        <v>32865065</v>
+      </c>
     </row>
     <row r="4" spans="1:17" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="8" t="s">
-        <v>96</v>
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4390683</v>
+      </c>
+      <c r="C4" s="7">
+        <v>8748583</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13324917</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1073,41 +916,49 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:17" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>84277</v>
+      </c>
+      <c r="C5" s="6">
+        <v>174253</v>
+      </c>
+      <c r="D5" s="6">
+        <v>259059</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>97</v>
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>23867</v>
+      </c>
+      <c r="C6" s="6">
+        <v>51424</v>
+      </c>
+      <c r="D6" s="6">
+        <v>81530</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="7">
-        <v>10845937</v>
-      </c>
-      <c r="C7" s="7">
-        <v>21217506</v>
-      </c>
-      <c r="D7" s="7">
-        <v>32865065</v>
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>112389</v>
+      </c>
+      <c r="C7" s="6">
+        <v>213326</v>
+      </c>
+      <c r="D7" s="6">
+        <v>318808</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1120,17 +971,17 @@
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7">
-        <v>4390683</v>
-      </c>
-      <c r="C8" s="7">
-        <v>8748583</v>
-      </c>
-      <c r="D8" s="7">
-        <v>13324917</v>
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>82291</v>
+      </c>
+      <c r="C8" s="6">
+        <v>161018</v>
+      </c>
+      <c r="D8" s="6">
+        <v>248694</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1144,16 +995,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6">
-        <v>84277</v>
+        <v>35211</v>
       </c>
       <c r="C9" s="6">
-        <v>174253</v>
+        <v>68500</v>
       </c>
       <c r="D9" s="6">
-        <v>259059</v>
+        <v>104902</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1167,16 +1018,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6">
-        <v>23867</v>
+        <v>62429</v>
       </c>
       <c r="C10" s="6">
-        <v>51424</v>
+        <v>132989</v>
       </c>
       <c r="D10" s="6">
-        <v>81530</v>
+        <v>218064</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1190,16 +1041,16 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
-        <v>112389</v>
+        <v>23113</v>
       </c>
       <c r="C11" s="6">
-        <v>213326</v>
+        <v>58107</v>
       </c>
       <c r="D11" s="6">
-        <v>318808</v>
+        <v>97957</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1213,16 +1064,16 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6">
-        <v>82291</v>
+        <v>24207</v>
       </c>
       <c r="C12" s="6">
-        <v>161018</v>
+        <v>48868</v>
       </c>
       <c r="D12" s="6">
-        <v>248694</v>
+        <v>76172</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1236,16 +1087,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6">
-        <v>35211</v>
+        <v>26898</v>
       </c>
       <c r="C13" s="6">
-        <v>68500</v>
+        <v>46072</v>
       </c>
       <c r="D13" s="6">
-        <v>104902</v>
+        <v>69515</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1259,16 +1110,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6">
-        <v>62429</v>
+        <v>1875363</v>
       </c>
       <c r="C14" s="6">
-        <v>132989</v>
+        <v>3707241</v>
       </c>
       <c r="D14" s="6">
-        <v>218064</v>
+        <v>5585936</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1282,16 +1133,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6">
-        <v>23113</v>
+        <v>19683</v>
       </c>
       <c r="C15" s="6">
-        <v>58107</v>
+        <v>39746</v>
       </c>
       <c r="D15" s="6">
-        <v>97957</v>
+        <v>64779</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1305,16 +1156,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6">
-        <v>24207</v>
+        <v>95222</v>
       </c>
       <c r="C16" s="6">
-        <v>48868</v>
+        <v>190200</v>
       </c>
       <c r="D16" s="6">
-        <v>76172</v>
+        <v>285303</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1328,16 +1179,16 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>26898</v>
+        <v>42334</v>
       </c>
       <c r="C17" s="6">
-        <v>46072</v>
+        <v>85133</v>
       </c>
       <c r="D17" s="6">
-        <v>69515</v>
+        <v>128938</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1351,16 +1202,16 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>1875363</v>
+        <v>19042</v>
       </c>
       <c r="C18" s="6">
-        <v>3707241</v>
+        <v>44941</v>
       </c>
       <c r="D18" s="6">
-        <v>5585936</v>
+        <v>73323</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1374,16 +1225,16 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>19683</v>
+        <v>315045</v>
       </c>
       <c r="C19" s="6">
-        <v>39746</v>
+        <v>750638</v>
       </c>
       <c r="D19" s="6">
-        <v>64779</v>
+        <v>1171236</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1397,16 +1248,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6">
-        <v>95222</v>
+        <v>86205</v>
       </c>
       <c r="C20" s="6">
-        <v>190200</v>
+        <v>168313</v>
       </c>
       <c r="D20" s="6">
-        <v>285303</v>
+        <v>260571</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1420,16 +1271,16 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6">
-        <v>42334</v>
+        <v>105718</v>
       </c>
       <c r="C21" s="6">
-        <v>85133</v>
+        <v>198531</v>
       </c>
       <c r="D21" s="6">
-        <v>128938</v>
+        <v>281262</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1443,16 +1294,16 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6">
-        <v>19042</v>
+        <v>1357389</v>
       </c>
       <c r="C22" s="6">
-        <v>44941</v>
+        <v>2609283</v>
       </c>
       <c r="D22" s="6">
-        <v>73323</v>
+        <v>3998868</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1465,17 +1316,17 @@
       <c r="Q22" s="9"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="6">
-        <v>315045</v>
-      </c>
-      <c r="C23" s="6">
-        <v>750638</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1171236</v>
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1726538</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3271421</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5028264</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1489,16 +1340,16 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6">
-        <v>86205</v>
+        <v>50318</v>
       </c>
       <c r="C24" s="6">
-        <v>168313</v>
+        <v>96727</v>
       </c>
       <c r="D24" s="6">
-        <v>260571</v>
+        <v>157334</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1512,16 +1363,16 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B25" s="6">
-        <v>105718</v>
+        <v>21835</v>
       </c>
       <c r="C25" s="6">
-        <v>198531</v>
+        <v>46355</v>
       </c>
       <c r="D25" s="6">
-        <v>281262</v>
+        <v>71568</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1535,16 +1386,16 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B26" s="6">
-        <v>1357389</v>
+        <v>61256</v>
       </c>
       <c r="C26" s="6">
-        <v>2609283</v>
+        <v>123636</v>
       </c>
       <c r="D26" s="6">
-        <v>3998868</v>
+        <v>187725</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1557,17 +1408,17 @@
       <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1726538</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3271421</v>
-      </c>
-      <c r="D27" s="7">
-        <v>5028264</v>
+      <c r="A27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2964</v>
+      </c>
+      <c r="C27" s="6">
+        <v>8887</v>
+      </c>
+      <c r="D27" s="6">
+        <v>14442</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1579,18 +1430,18 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>21</v>
+    <row r="28" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B28" s="6">
-        <v>50318</v>
+        <v>58292</v>
       </c>
       <c r="C28" s="6">
-        <v>96727</v>
+        <v>114749</v>
       </c>
       <c r="D28" s="6">
-        <v>157334</v>
+        <v>173283</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1604,16 +1455,16 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6">
-        <v>21835</v>
+        <v>107724</v>
       </c>
       <c r="C29" s="6">
-        <v>46355</v>
+        <v>199112</v>
       </c>
       <c r="D29" s="6">
-        <v>71568</v>
+        <v>286517</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1627,16 +1478,16 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B30" s="6">
-        <v>61256</v>
+        <v>70879</v>
       </c>
       <c r="C30" s="6">
-        <v>123636</v>
+        <v>134614</v>
       </c>
       <c r="D30" s="6">
-        <v>187725</v>
+        <v>219933</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1649,17 +1500,17 @@
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>24</v>
+      <c r="A31" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B31" s="6">
-        <v>2964</v>
+        <v>439556</v>
       </c>
       <c r="C31" s="6">
-        <v>8887</v>
+        <v>827975</v>
       </c>
       <c r="D31" s="6">
-        <v>14442</v>
+        <v>1221118</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1671,18 +1522,18 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>25</v>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B32" s="6">
-        <v>58292</v>
+        <v>79537</v>
       </c>
       <c r="C32" s="6">
-        <v>114749</v>
+        <v>154732</v>
       </c>
       <c r="D32" s="6">
-        <v>173283</v>
+        <v>225589</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1696,16 +1547,16 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B33" s="6">
-        <v>107724</v>
+        <v>81627</v>
       </c>
       <c r="C33" s="6">
-        <v>199112</v>
+        <v>147836</v>
       </c>
       <c r="D33" s="6">
-        <v>286517</v>
+        <v>238415</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1719,16 +1570,16 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B34" s="6">
-        <v>70879</v>
+        <v>106853</v>
       </c>
       <c r="C34" s="6">
-        <v>134614</v>
+        <v>190510</v>
       </c>
       <c r="D34" s="6">
-        <v>219933</v>
+        <v>292130</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1742,16 +1593,16 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B35" s="6">
-        <v>439556</v>
+        <v>706953</v>
       </c>
       <c r="C35" s="6">
-        <v>827975</v>
+        <v>1349924</v>
       </c>
       <c r="D35" s="6">
-        <v>1221118</v>
+        <v>2127935</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1764,17 +1615,17 @@
       <c r="Q35" s="9"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="6">
-        <v>79537</v>
-      </c>
-      <c r="C36" s="6">
-        <v>154732</v>
-      </c>
-      <c r="D36" s="6">
-        <v>225589</v>
+      <c r="A36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1368150</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2602752</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4255230</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1788,16 +1639,16 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B37" s="6">
-        <v>81627</v>
+        <v>23992</v>
       </c>
       <c r="C37" s="6">
-        <v>147836</v>
+        <v>59838</v>
       </c>
       <c r="D37" s="6">
-        <v>238415</v>
+        <v>102107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1811,16 +1662,16 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6">
-        <v>106853</v>
+        <v>2384</v>
       </c>
       <c r="C38" s="6">
-        <v>190510</v>
+        <v>6690</v>
       </c>
       <c r="D38" s="6">
-        <v>292130</v>
+        <v>11118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -1834,18 +1685,17 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B39" s="6">
-        <v>706953</v>
+        <v>176917</v>
       </c>
       <c r="C39" s="6">
-        <v>1349924</v>
+        <v>337591</v>
       </c>
       <c r="D39" s="6">
-        <v>2127935</v>
-      </c>
-      <c r="I39" s="9"/>
+        <v>554161</v>
+      </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -1856,19 +1706,18 @@
       <c r="Q39" s="9"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="7">
-        <v>1368150</v>
-      </c>
-      <c r="C40" s="7">
-        <v>2602752</v>
-      </c>
-      <c r="D40" s="7">
-        <v>4255230</v>
-      </c>
-      <c r="I40" s="9"/>
+      <c r="A40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="6">
+        <v>966338</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1820276</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2978463</v>
+      </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -1880,16 +1729,16 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B41" s="6">
-        <v>23992</v>
+        <v>18534</v>
       </c>
       <c r="C41" s="6">
-        <v>59838</v>
+        <v>41242</v>
       </c>
       <c r="D41" s="6">
-        <v>102107</v>
+        <v>70248</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -1903,16 +1752,16 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B42" s="6">
-        <v>2384</v>
+        <v>52875</v>
       </c>
       <c r="C42" s="6">
-        <v>6690</v>
+        <v>109635</v>
       </c>
       <c r="D42" s="6">
-        <v>11118</v>
+        <v>181648</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1926,16 +1775,16 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B43" s="6">
-        <v>176917</v>
+        <v>121625</v>
       </c>
       <c r="C43" s="6">
-        <v>337591</v>
+        <v>217933</v>
       </c>
       <c r="D43" s="6">
-        <v>554161</v>
+        <v>340387</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -1949,16 +1798,16 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B44" s="6">
-        <v>966338</v>
+        <v>5485</v>
       </c>
       <c r="C44" s="6">
-        <v>1820276</v>
+        <v>9547</v>
       </c>
       <c r="D44" s="6">
-        <v>2978463</v>
+        <v>17098</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -1971,17 +1820,17 @@
       <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="6">
-        <v>18534</v>
-      </c>
-      <c r="C45" s="6">
-        <v>41242</v>
-      </c>
-      <c r="D45" s="6">
-        <v>70248</v>
+      <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="7">
+        <v>306602</v>
+      </c>
+      <c r="C45" s="7">
+        <v>585245</v>
+      </c>
+      <c r="D45" s="7">
+        <v>892836</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -1995,16 +1844,16 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6">
-        <v>52875</v>
+        <v>26342</v>
       </c>
       <c r="C46" s="6">
-        <v>109635</v>
+        <v>56909</v>
       </c>
       <c r="D46" s="6">
-        <v>181648</v>
+        <v>89289</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2018,16 +1867,16 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B47" s="6">
-        <v>121625</v>
+        <v>5609</v>
       </c>
       <c r="C47" s="6">
-        <v>217933</v>
+        <v>9140</v>
       </c>
       <c r="D47" s="6">
-        <v>340387</v>
+        <v>13453</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2041,16 +1890,16 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B48" s="6">
-        <v>5485</v>
+        <v>17492</v>
       </c>
       <c r="C48" s="6">
-        <v>9547</v>
+        <v>37886</v>
       </c>
       <c r="D48" s="6">
-        <v>17098</v>
+        <v>58733</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2063,17 +1912,17 @@
       <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="7">
-        <v>306602</v>
-      </c>
-      <c r="C49" s="7">
-        <v>585245</v>
-      </c>
-      <c r="D49" s="7">
-        <v>892836</v>
+      <c r="A49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="6">
+        <v>104593</v>
+      </c>
+      <c r="C49" s="6">
+        <v>178595</v>
+      </c>
+      <c r="D49" s="6">
+        <v>234267</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2087,16 +1936,16 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B50" s="6">
-        <v>26342</v>
+        <v>4200</v>
       </c>
       <c r="C50" s="6">
-        <v>56909</v>
+        <v>9855</v>
       </c>
       <c r="D50" s="6">
-        <v>89289</v>
+        <v>17252</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2110,16 +1959,16 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B51" s="6">
-        <v>5609</v>
+        <v>6717</v>
       </c>
       <c r="C51" s="6">
-        <v>9140</v>
+        <v>13910</v>
       </c>
       <c r="D51" s="6">
-        <v>13453</v>
+        <v>25687</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2133,16 +1982,16 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B52" s="6">
-        <v>17492</v>
+        <v>141649</v>
       </c>
       <c r="C52" s="6">
-        <v>37886</v>
+        <v>278950</v>
       </c>
       <c r="D52" s="6">
-        <v>58733</v>
+        <v>454155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2155,17 +2004,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="6">
-        <v>104593</v>
-      </c>
-      <c r="C53" s="6">
-        <v>178595</v>
-      </c>
-      <c r="D53" s="6">
-        <v>234267</v>
+      <c r="A53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1266485</v>
+      </c>
+      <c r="C53" s="7">
+        <v>2418617</v>
+      </c>
+      <c r="D53" s="7">
+        <v>3727903</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2179,16 +2028,16 @@
     </row>
     <row r="54" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B54" s="6">
-        <v>4200</v>
+        <v>175328</v>
       </c>
       <c r="C54" s="6">
-        <v>9855</v>
+        <v>318169</v>
       </c>
       <c r="D54" s="6">
-        <v>17252</v>
+        <v>482265</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2202,16 +2051,16 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B55" s="6">
-        <v>6717</v>
+        <v>20197</v>
       </c>
       <c r="C55" s="6">
-        <v>13910</v>
+        <v>35652</v>
       </c>
       <c r="D55" s="6">
-        <v>25687</v>
+        <v>46236</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2225,16 +2074,16 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B56" s="6">
-        <v>141649</v>
+        <v>15269</v>
       </c>
       <c r="C56" s="6">
-        <v>278950</v>
+        <v>33284</v>
       </c>
       <c r="D56" s="6">
-        <v>454155</v>
+        <v>48290</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2247,17 +2096,17 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="7">
-        <v>1266485</v>
-      </c>
-      <c r="C57" s="7">
-        <v>2418617</v>
-      </c>
-      <c r="D57" s="7">
-        <v>3727903</v>
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="6">
+        <v>282448</v>
+      </c>
+      <c r="C57" s="6">
+        <v>558798</v>
+      </c>
+      <c r="D57" s="6">
+        <v>873154</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2271,16 +2120,16 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B58" s="6">
-        <v>175328</v>
+        <v>64741</v>
       </c>
       <c r="C58" s="6">
-        <v>318169</v>
+        <v>125120</v>
       </c>
       <c r="D58" s="6">
-        <v>482265</v>
+        <v>198744</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2294,16 +2143,16 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B59" s="6">
-        <v>20197</v>
+        <v>67564</v>
       </c>
       <c r="C59" s="6">
-        <v>35652</v>
+        <v>126823</v>
       </c>
       <c r="D59" s="6">
-        <v>46236</v>
+        <v>192844</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2317,16 +2166,16 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B60" s="6">
-        <v>15269</v>
+        <v>80853</v>
       </c>
       <c r="C60" s="6">
-        <v>33284</v>
+        <v>159018</v>
       </c>
       <c r="D60" s="6">
-        <v>48290</v>
+        <v>252668</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2340,16 +2189,16 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B61" s="6">
-        <v>282448</v>
+        <v>53627</v>
       </c>
       <c r="C61" s="6">
-        <v>558798</v>
+        <v>99755</v>
       </c>
       <c r="D61" s="6">
-        <v>873154</v>
+        <v>152798</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2363,16 +2212,16 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B62" s="6">
-        <v>64741</v>
+        <v>215003</v>
       </c>
       <c r="C62" s="6">
-        <v>125120</v>
+        <v>401676</v>
       </c>
       <c r="D62" s="6">
-        <v>198744</v>
+        <v>614290</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2386,16 +2235,16 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B63" s="6">
-        <v>67564</v>
+        <v>51043</v>
       </c>
       <c r="C63" s="6">
-        <v>126823</v>
+        <v>84575</v>
       </c>
       <c r="D63" s="6">
-        <v>192844</v>
+        <v>119142</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -2409,16 +2258,16 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B64" s="6">
-        <v>80853</v>
+        <v>30161</v>
       </c>
       <c r="C64" s="6">
-        <v>159018</v>
+        <v>59994</v>
       </c>
       <c r="D64" s="6">
-        <v>252668</v>
+        <v>93828</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2432,16 +2281,16 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B65" s="6">
-        <v>53627</v>
+        <v>100455</v>
       </c>
       <c r="C65" s="6">
-        <v>99755</v>
+        <v>205892</v>
       </c>
       <c r="D65" s="6">
-        <v>152798</v>
+        <v>321246</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -2455,16 +2304,16 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B66" s="6">
-        <v>215003</v>
+        <v>50518</v>
       </c>
       <c r="C66" s="6">
-        <v>401676</v>
+        <v>91297</v>
       </c>
       <c r="D66" s="6">
-        <v>614290</v>
+        <v>146728</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -2478,16 +2327,16 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B67" s="6">
-        <v>51043</v>
+        <v>59278</v>
       </c>
       <c r="C67" s="6">
-        <v>84575</v>
+        <v>118564</v>
       </c>
       <c r="D67" s="6">
-        <v>119142</v>
+        <v>185670</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -2500,17 +2349,17 @@
       <c r="Q67" s="9"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="6">
-        <v>30161</v>
-      </c>
-      <c r="C68" s="6">
-        <v>59994</v>
-      </c>
-      <c r="D68" s="6">
-        <v>93828</v>
+      <c r="A68" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="7">
+        <v>543735</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1072118</v>
+      </c>
+      <c r="D68" s="7">
+        <v>1695641</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -2524,16 +2373,16 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B69" s="6">
-        <v>100455</v>
+        <v>28232</v>
       </c>
       <c r="C69" s="6">
-        <v>205892</v>
+        <v>50976</v>
       </c>
       <c r="D69" s="6">
-        <v>321246</v>
+        <v>81164</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -2547,16 +2396,16 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B70" s="6">
-        <v>50518</v>
+        <v>217660</v>
       </c>
       <c r="C70" s="6">
-        <v>91297</v>
+        <v>424019</v>
       </c>
       <c r="D70" s="6">
-        <v>146728</v>
+        <v>662140</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -2570,16 +2419,16 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B71" s="6">
-        <v>59278</v>
+        <v>173239</v>
       </c>
       <c r="C71" s="6">
-        <v>118564</v>
+        <v>360650</v>
       </c>
       <c r="D71" s="6">
-        <v>185670</v>
+        <v>586782</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -2592,17 +2441,17 @@
       <c r="Q71" s="9"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" s="7">
-        <v>543735</v>
-      </c>
-      <c r="C72" s="7">
-        <v>1072118</v>
-      </c>
-      <c r="D72" s="7">
-        <v>1695641</v>
+      <c r="A72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="6">
+        <v>65242</v>
+      </c>
+      <c r="C72" s="6">
+        <v>135919</v>
+      </c>
+      <c r="D72" s="6">
+        <v>219689</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -2615,17 +2464,17 @@
       <c r="Q72" s="9"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>66</v>
+      <c r="A73" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B73" s="6">
-        <v>28232</v>
+        <v>19233</v>
       </c>
       <c r="C73" s="6">
-        <v>50976</v>
+        <v>45851</v>
       </c>
       <c r="D73" s="6">
-        <v>81164</v>
+        <v>78638</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -2637,18 +2486,18 @@
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>67</v>
+    <row r="74" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B74" s="6">
-        <v>217660</v>
+        <v>88764</v>
       </c>
       <c r="C74" s="6">
-        <v>424019</v>
+        <v>178880</v>
       </c>
       <c r="D74" s="6">
-        <v>662140</v>
+        <v>288455</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -2662,16 +2511,16 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B75" s="6">
-        <v>173239</v>
+        <v>124604</v>
       </c>
       <c r="C75" s="6">
-        <v>360650</v>
+        <v>236473</v>
       </c>
       <c r="D75" s="6">
-        <v>586782</v>
+        <v>365555</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -2684,17 +2533,17 @@
       <c r="Q75" s="9"/>
     </row>
     <row r="76" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B76" s="6">
-        <v>65242</v>
-      </c>
-      <c r="C76" s="6">
-        <v>135919</v>
-      </c>
-      <c r="D76" s="6">
-        <v>219689</v>
+      <c r="A76" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="7">
+        <v>849364</v>
+      </c>
+      <c r="C76" s="7">
+        <v>1733969</v>
+      </c>
+      <c r="D76" s="7">
+        <v>2712548</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -2707,17 +2556,17 @@
       <c r="Q76" s="9"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>70</v>
+      <c r="A77" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B77" s="6">
-        <v>19233</v>
+        <v>19125</v>
       </c>
       <c r="C77" s="6">
-        <v>45851</v>
+        <v>61753</v>
       </c>
       <c r="D77" s="6">
-        <v>78638</v>
+        <v>107896</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -2730,17 +2579,17 @@
       <c r="Q77" s="9"/>
     </row>
     <row r="78" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>71</v>
+      <c r="A78" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B78" s="6">
-        <v>88764</v>
+        <v>3321</v>
       </c>
       <c r="C78" s="6">
-        <v>178880</v>
+        <v>6087</v>
       </c>
       <c r="D78" s="6">
-        <v>288455</v>
+        <v>9467</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -2754,16 +2603,16 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B79" s="6">
-        <v>124604</v>
+        <v>46896</v>
       </c>
       <c r="C79" s="6">
-        <v>236473</v>
+        <v>92561</v>
       </c>
       <c r="D79" s="6">
-        <v>365555</v>
+        <v>148243</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -2776,17 +2625,17 @@
       <c r="Q79" s="9"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="7">
-        <v>849364</v>
-      </c>
-      <c r="C80" s="7">
-        <v>1733969</v>
-      </c>
-      <c r="D80" s="7">
-        <v>2712548</v>
+      <c r="A80" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="6">
+        <v>111837</v>
+      </c>
+      <c r="C80" s="6">
+        <v>232808</v>
+      </c>
+      <c r="D80" s="6">
+        <v>366341</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -2800,16 +2649,16 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B81" s="6">
-        <v>19125</v>
+        <v>114640</v>
       </c>
       <c r="C81" s="6">
-        <v>61753</v>
+        <v>223213</v>
       </c>
       <c r="D81" s="6">
-        <v>107896</v>
+        <v>342975</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -2823,16 +2672,16 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B82" s="6">
-        <v>3321</v>
+        <v>114442</v>
       </c>
       <c r="C82" s="6">
-        <v>6087</v>
+        <v>234818</v>
       </c>
       <c r="D82" s="6">
-        <v>9467</v>
+        <v>353496</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -2846,16 +2695,16 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B83" s="6">
-        <v>46896</v>
+        <v>140083</v>
       </c>
       <c r="C83" s="6">
-        <v>92561</v>
+        <v>274521</v>
       </c>
       <c r="D83" s="6">
-        <v>148243</v>
+        <v>429210</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -2869,16 +2718,16 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B84" s="6">
-        <v>111837</v>
+        <v>160405</v>
       </c>
       <c r="C84" s="6">
-        <v>232808</v>
+        <v>329584</v>
       </c>
       <c r="D84" s="6">
-        <v>366341</v>
+        <v>534817</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -2892,16 +2741,16 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B85" s="6">
-        <v>114640</v>
+        <v>95478</v>
       </c>
       <c r="C85" s="6">
-        <v>223213</v>
+        <v>187190</v>
       </c>
       <c r="D85" s="6">
-        <v>342975</v>
+        <v>266704</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -2915,16 +2764,16 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B86" s="6">
-        <v>114442</v>
+        <v>43137</v>
       </c>
       <c r="C86" s="6">
-        <v>234818</v>
+        <v>91434</v>
       </c>
       <c r="D86" s="6">
-        <v>353496</v>
+        <v>153399</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -2937,17 +2786,17 @@
       <c r="Q86" s="9"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" s="6">
-        <v>140083</v>
-      </c>
-      <c r="C87" s="6">
-        <v>274521</v>
-      </c>
-      <c r="D87" s="6">
-        <v>429210</v>
+      <c r="A87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="7">
+        <v>394380</v>
+      </c>
+      <c r="C87" s="7">
+        <v>784801</v>
+      </c>
+      <c r="D87" s="7">
+        <v>1227726</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -2961,16 +2810,16 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B88" s="6">
-        <v>160405</v>
+        <v>58323</v>
       </c>
       <c r="C88" s="6">
-        <v>329584</v>
+        <v>105470</v>
       </c>
       <c r="D88" s="6">
-        <v>534817</v>
+        <v>170294</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -2984,16 +2833,16 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B89" s="6">
-        <v>95478</v>
+        <v>15257</v>
       </c>
       <c r="C89" s="6">
-        <v>187190</v>
+        <v>34553</v>
       </c>
       <c r="D89" s="6">
-        <v>266704</v>
+        <v>56062</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -3007,16 +2856,16 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B90" s="6">
-        <v>43137</v>
+        <v>21330</v>
       </c>
       <c r="C90" s="6">
-        <v>91434</v>
+        <v>38239</v>
       </c>
       <c r="D90" s="6">
-        <v>153399</v>
+        <v>58969</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -3029,17 +2878,17 @@
       <c r="Q90" s="9"/>
     </row>
     <row r="91" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="7">
-        <v>394380</v>
-      </c>
-      <c r="C91" s="7">
-        <v>784801</v>
-      </c>
-      <c r="D91" s="7">
-        <v>1227726</v>
+      <c r="A91" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="6">
+        <v>45114</v>
+      </c>
+      <c r="C91" s="6">
+        <v>87634</v>
+      </c>
+      <c r="D91" s="6">
+        <v>134114</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -3053,16 +2902,16 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B92" s="6">
-        <v>58323</v>
+        <v>97427</v>
       </c>
       <c r="C92" s="6">
-        <v>105470</v>
+        <v>187982</v>
       </c>
       <c r="D92" s="6">
-        <v>170294</v>
+        <v>298625</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -3076,16 +2925,16 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B93" s="6">
-        <v>15257</v>
+        <v>81146</v>
       </c>
       <c r="C93" s="6">
-        <v>34553</v>
+        <v>161710</v>
       </c>
       <c r="D93" s="6">
-        <v>56062</v>
+        <v>248695</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -3099,16 +2948,16 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B94" s="6">
-        <v>21330</v>
+        <v>30219</v>
       </c>
       <c r="C94" s="6">
-        <v>38239</v>
+        <v>65200</v>
       </c>
       <c r="D94" s="6">
-        <v>58969</v>
+        <v>98315</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -3122,16 +2971,16 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B95" s="6">
-        <v>45114</v>
+        <v>7026</v>
       </c>
       <c r="C95" s="6">
-        <v>87634</v>
+        <v>19845</v>
       </c>
       <c r="D95" s="6">
-        <v>134114</v>
+        <v>29722</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -3145,16 +2994,16 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B96" s="6">
-        <v>97427</v>
+        <v>32346</v>
       </c>
       <c r="C96" s="6">
-        <v>187982</v>
+        <v>70232</v>
       </c>
       <c r="D96" s="6">
-        <v>298625</v>
+        <v>106718</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -3168,16 +3017,16 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B97" s="6">
-        <v>81146</v>
+        <v>4075</v>
       </c>
       <c r="C97" s="6">
-        <v>161710</v>
+        <v>8692</v>
       </c>
       <c r="D97" s="6">
-        <v>248695</v>
+        <v>13495</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -3191,16 +3040,16 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B98" s="6">
-        <v>30219</v>
+        <v>2117</v>
       </c>
       <c r="C98" s="6">
-        <v>65200</v>
+        <v>5244</v>
       </c>
       <c r="D98" s="6">
-        <v>98315</v>
+        <v>12717</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -3213,18 +3062,10 @@
       <c r="Q98" s="9"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" s="6">
-        <v>7026</v>
-      </c>
-      <c r="C99" s="6">
-        <v>19845</v>
-      </c>
-      <c r="D99" s="6">
-        <v>29722</v>
-      </c>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
@@ -3236,18 +3077,6 @@
       <c r="Q99" s="9"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B100" s="6">
-        <v>32346</v>
-      </c>
-      <c r="C100" s="6">
-        <v>70232</v>
-      </c>
-      <c r="D100" s="6">
-        <v>106718</v>
-      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -3259,18 +3088,6 @@
       <c r="Q100" s="9"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B101" s="6">
-        <v>4075</v>
-      </c>
-      <c r="C101" s="6">
-        <v>8692</v>
-      </c>
-      <c r="D101" s="6">
-        <v>13495</v>
-      </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
@@ -3282,18 +3099,6 @@
       <c r="Q101" s="9"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="6">
-        <v>2117</v>
-      </c>
-      <c r="C102" s="6">
-        <v>5244</v>
-      </c>
-      <c r="D102" s="6">
-        <v>12717</v>
-      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -3305,12 +3110,6 @@
       <c r="Q102" s="9"/>
     </row>
     <row r="103" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
@@ -3322,16 +3121,10 @@
       <c r="Q103" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A99:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Turpotok_03-2025.xlsx
+++ b/Turpotok_03-2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Российская Федерация</t>
   </si>
@@ -160,150 +160,6 @@
     <t>Республика Северная Осетия - Алания</t>
   </si>
   <si>
-    <t>Чеченская Республика</t>
-  </si>
-  <si>
-    <t>Ставропольский край</t>
-  </si>
-  <si>
-    <t>Приволжский федеральный округ</t>
-  </si>
-  <si>
-    <t>Республика Башкортостан</t>
-  </si>
-  <si>
-    <t>Республика Марий Эл</t>
-  </si>
-  <si>
-    <t>Республика Мордовия</t>
-  </si>
-  <si>
-    <t>Республика Татарстан</t>
-  </si>
-  <si>
-    <t>Удмуртская Республика</t>
-  </si>
-  <si>
-    <t>Чувашская Республика</t>
-  </si>
-  <si>
-    <t>Пермский край</t>
-  </si>
-  <si>
-    <t>Кировская область</t>
-  </si>
-  <si>
-    <t>Нижегородская область</t>
-  </si>
-  <si>
-    <t>Оренбургская область</t>
-  </si>
-  <si>
-    <t>Пензенская область</t>
-  </si>
-  <si>
-    <t>Самарская область</t>
-  </si>
-  <si>
-    <t>Саратовская область</t>
-  </si>
-  <si>
-    <t>Ульяновская область</t>
-  </si>
-  <si>
-    <t>Уральский федеральный округ</t>
-  </si>
-  <si>
-    <t>Курганская область</t>
-  </si>
-  <si>
-    <t>Свердловская область</t>
-  </si>
-  <si>
-    <t>Тюменская область</t>
-  </si>
-  <si>
-    <t>Ханты-Мансийский автономный округ - Югра</t>
-  </si>
-  <si>
-    <t>Ямало-Ненецкий автономный округ</t>
-  </si>
-  <si>
-    <t>Тюменская область (кроме Ханты-Мансийского автономного округа-Югры и Ямало-Ненецкого автономного округа)</t>
-  </si>
-  <si>
-    <t>Челябинская область</t>
-  </si>
-  <si>
-    <t>Сибирский федеральный округ</t>
-  </si>
-  <si>
-    <t>Республика Алтай</t>
-  </si>
-  <si>
-    <t>Республика Тыва</t>
-  </si>
-  <si>
-    <t>Республика Хакасия</t>
-  </si>
-  <si>
-    <t>Алтайский край</t>
-  </si>
-  <si>
-    <t>Красноярский край</t>
-  </si>
-  <si>
-    <t>Иркутская область</t>
-  </si>
-  <si>
-    <t>Кемеровская область - Кузбасс</t>
-  </si>
-  <si>
-    <t>Новосибирская область</t>
-  </si>
-  <si>
-    <t>Омская область</t>
-  </si>
-  <si>
-    <t>Томская область</t>
-  </si>
-  <si>
-    <t>Дальневосточный федеральный округ</t>
-  </si>
-  <si>
-    <t>Республика Бурятия</t>
-  </si>
-  <si>
-    <t>Республика Саха (Якутия)</t>
-  </si>
-  <si>
-    <t>Забайкальский край</t>
-  </si>
-  <si>
-    <t>Камчатский край</t>
-  </si>
-  <si>
-    <t>Приморский край</t>
-  </si>
-  <si>
-    <t>Хабаровский край</t>
-  </si>
-  <si>
-    <t>Амурская область</t>
-  </si>
-  <si>
-    <t>Магаданская область</t>
-  </si>
-  <si>
-    <t>Сахалинская область</t>
-  </si>
-  <si>
-    <t>Еврейская автономная область</t>
-  </si>
-  <si>
-    <t>Чукотский автономный округ</t>
-  </si>
-  <si>
     <t>январь-март</t>
   </si>
   <si>
@@ -311,22 +167,6 @@
   </si>
   <si>
     <t>январь</t>
-  </si>
-  <si>
-    <r>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>**</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -338,7 +178,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,41 +248,19 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -492,7 +310,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -517,15 +335,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -842,11 +656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99:D99"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,106 +673,117 @@
     <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="7">
+        <v>10845937</v>
+      </c>
+      <c r="C2" s="7">
+        <v>21217506</v>
+      </c>
+      <c r="D2" s="7">
+        <v>32865065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="7">
-        <v>10845937</v>
+        <v>4390683</v>
       </c>
       <c r="C3" s="7">
-        <v>21217506</v>
+        <v>8748583</v>
       </c>
       <c r="D3" s="7">
-        <v>32865065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4390683</v>
-      </c>
-      <c r="C4" s="7">
-        <v>8748583</v>
-      </c>
-      <c r="D4" s="7">
         <v>13324917</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>84277</v>
+      </c>
+      <c r="C4" s="6">
+        <v>174253</v>
+      </c>
+      <c r="D4" s="6">
+        <v>259059</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>84277</v>
+        <v>23867</v>
       </c>
       <c r="C5" s="6">
-        <v>174253</v>
+        <v>51424</v>
       </c>
       <c r="D5" s="6">
-        <v>259059</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>23867</v>
+        <v>112389</v>
       </c>
       <c r="C6" s="6">
-        <v>51424</v>
+        <v>213326</v>
       </c>
       <c r="D6" s="6">
-        <v>81530</v>
-      </c>
+        <v>318808</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>112389</v>
+        <v>82291</v>
       </c>
       <c r="C7" s="6">
-        <v>213326</v>
+        <v>161018</v>
       </c>
       <c r="D7" s="6">
-        <v>318808</v>
+        <v>248694</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -972,16 +797,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>82291</v>
+        <v>35211</v>
       </c>
       <c r="C8" s="6">
-        <v>161018</v>
+        <v>68500</v>
       </c>
       <c r="D8" s="6">
-        <v>248694</v>
+        <v>104902</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -995,16 +820,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>35211</v>
+        <v>62429</v>
       </c>
       <c r="C9" s="6">
-        <v>68500</v>
+        <v>132989</v>
       </c>
       <c r="D9" s="6">
-        <v>104902</v>
+        <v>218064</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1018,16 +843,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>62429</v>
+        <v>23113</v>
       </c>
       <c r="C10" s="6">
-        <v>132989</v>
+        <v>58107</v>
       </c>
       <c r="D10" s="6">
-        <v>218064</v>
+        <v>97957</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1041,16 +866,16 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>23113</v>
+        <v>24207</v>
       </c>
       <c r="C11" s="6">
-        <v>58107</v>
+        <v>48868</v>
       </c>
       <c r="D11" s="6">
-        <v>97957</v>
+        <v>76172</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1064,16 +889,16 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>24207</v>
+        <v>26898</v>
       </c>
       <c r="C12" s="6">
-        <v>48868</v>
+        <v>46072</v>
       </c>
       <c r="D12" s="6">
-        <v>76172</v>
+        <v>69515</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1087,16 +912,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>26898</v>
+        <v>1875363</v>
       </c>
       <c r="C13" s="6">
-        <v>46072</v>
+        <v>3707241</v>
       </c>
       <c r="D13" s="6">
-        <v>69515</v>
+        <v>5585936</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1110,16 +935,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>1875363</v>
+        <v>19683</v>
       </c>
       <c r="C14" s="6">
-        <v>3707241</v>
+        <v>39746</v>
       </c>
       <c r="D14" s="6">
-        <v>5585936</v>
+        <v>64779</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1133,16 +958,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6">
-        <v>19683</v>
+        <v>95222</v>
       </c>
       <c r="C15" s="6">
-        <v>39746</v>
+        <v>190200</v>
       </c>
       <c r="D15" s="6">
-        <v>64779</v>
+        <v>285303</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1156,16 +981,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>95222</v>
+        <v>42334</v>
       </c>
       <c r="C16" s="6">
-        <v>190200</v>
+        <v>85133</v>
       </c>
       <c r="D16" s="6">
-        <v>285303</v>
+        <v>128938</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1179,16 +1004,16 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>42334</v>
+        <v>19042</v>
       </c>
       <c r="C17" s="6">
-        <v>85133</v>
+        <v>44941</v>
       </c>
       <c r="D17" s="6">
-        <v>128938</v>
+        <v>73323</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1202,16 +1027,16 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>19042</v>
+        <v>315045</v>
       </c>
       <c r="C18" s="6">
-        <v>44941</v>
+        <v>750638</v>
       </c>
       <c r="D18" s="6">
-        <v>73323</v>
+        <v>1171236</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1225,16 +1050,16 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6">
-        <v>315045</v>
+        <v>86205</v>
       </c>
       <c r="C19" s="6">
-        <v>750638</v>
+        <v>168313</v>
       </c>
       <c r="D19" s="6">
-        <v>1171236</v>
+        <v>260571</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1248,16 +1073,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>86205</v>
+        <v>105718</v>
       </c>
       <c r="C20" s="6">
-        <v>168313</v>
+        <v>198531</v>
       </c>
       <c r="D20" s="6">
-        <v>260571</v>
+        <v>281262</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1271,16 +1096,16 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>105718</v>
+        <v>1357389</v>
       </c>
       <c r="C21" s="6">
-        <v>198531</v>
+        <v>2609283</v>
       </c>
       <c r="D21" s="6">
-        <v>281262</v>
+        <v>3998868</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1293,17 +1118,17 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1357389</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2609283</v>
-      </c>
-      <c r="D22" s="6">
-        <v>3998868</v>
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1726538</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3271421</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5028264</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1316,17 +1141,17 @@
       <c r="Q22" s="9"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1726538</v>
-      </c>
-      <c r="C23" s="7">
-        <v>3271421</v>
-      </c>
-      <c r="D23" s="7">
-        <v>5028264</v>
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
+        <v>50318</v>
+      </c>
+      <c r="C23" s="6">
+        <v>96727</v>
+      </c>
+      <c r="D23" s="6">
+        <v>157334</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1340,16 +1165,16 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>50318</v>
+        <v>21835</v>
       </c>
       <c r="C24" s="6">
-        <v>96727</v>
+        <v>46355</v>
       </c>
       <c r="D24" s="6">
-        <v>157334</v>
+        <v>71568</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1363,16 +1188,16 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6">
-        <v>21835</v>
+        <v>61256</v>
       </c>
       <c r="C25" s="6">
-        <v>46355</v>
+        <v>123636</v>
       </c>
       <c r="D25" s="6">
-        <v>71568</v>
+        <v>187725</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1384,18 +1209,18 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>23</v>
+    <row r="26" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>61256</v>
+        <v>2964</v>
       </c>
       <c r="C26" s="6">
-        <v>123636</v>
+        <v>8887</v>
       </c>
       <c r="D26" s="6">
-        <v>187725</v>
+        <v>14442</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1407,18 +1232,18 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6">
-        <v>2964</v>
+        <v>58292</v>
       </c>
       <c r="C27" s="6">
-        <v>8887</v>
+        <v>114749</v>
       </c>
       <c r="D27" s="6">
-        <v>14442</v>
+        <v>173283</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1430,18 +1255,18 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>25</v>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>58292</v>
+        <v>107724</v>
       </c>
       <c r="C28" s="6">
-        <v>114749</v>
+        <v>199112</v>
       </c>
       <c r="D28" s="6">
-        <v>173283</v>
+        <v>286517</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1455,16 +1280,16 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6">
-        <v>107724</v>
+        <v>70879</v>
       </c>
       <c r="C29" s="6">
-        <v>199112</v>
+        <v>134614</v>
       </c>
       <c r="D29" s="6">
-        <v>286517</v>
+        <v>219933</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1478,16 +1303,16 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>70879</v>
+        <v>439556</v>
       </c>
       <c r="C30" s="6">
-        <v>134614</v>
+        <v>827975</v>
       </c>
       <c r="D30" s="6">
-        <v>219933</v>
+        <v>1221118</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1501,16 +1326,16 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6">
-        <v>439556</v>
+        <v>79537</v>
       </c>
       <c r="C31" s="6">
-        <v>827975</v>
+        <v>154732</v>
       </c>
       <c r="D31" s="6">
-        <v>1221118</v>
+        <v>225589</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1524,16 +1349,16 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>79537</v>
+        <v>81627</v>
       </c>
       <c r="C32" s="6">
-        <v>154732</v>
+        <v>147836</v>
       </c>
       <c r="D32" s="6">
-        <v>225589</v>
+        <v>238415</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1547,16 +1372,16 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6">
-        <v>81627</v>
+        <v>106853</v>
       </c>
       <c r="C33" s="6">
-        <v>147836</v>
+        <v>190510</v>
       </c>
       <c r="D33" s="6">
-        <v>238415</v>
+        <v>292130</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1570,16 +1395,16 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>106853</v>
+        <v>706953</v>
       </c>
       <c r="C34" s="6">
-        <v>190510</v>
+        <v>1349924</v>
       </c>
       <c r="D34" s="6">
-        <v>292130</v>
+        <v>2127935</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1592,17 +1417,17 @@
       <c r="Q34" s="9"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="6">
-        <v>706953</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1349924</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2127935</v>
+      <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1368150</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2602752</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4255230</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1615,17 +1440,17 @@
       <c r="Q35" s="9"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1368150</v>
-      </c>
-      <c r="C36" s="7">
-        <v>2602752</v>
-      </c>
-      <c r="D36" s="7">
-        <v>4255230</v>
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6">
+        <v>23992</v>
+      </c>
+      <c r="C36" s="6">
+        <v>59838</v>
+      </c>
+      <c r="D36" s="6">
+        <v>102107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1639,16 +1464,16 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6">
-        <v>23992</v>
+        <v>2384</v>
       </c>
       <c r="C37" s="6">
-        <v>59838</v>
+        <v>6690</v>
       </c>
       <c r="D37" s="6">
-        <v>102107</v>
+        <v>11118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1662,18 +1487,17 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>2384</v>
+        <v>176917</v>
       </c>
       <c r="C38" s="6">
-        <v>6690</v>
+        <v>337591</v>
       </c>
       <c r="D38" s="6">
-        <v>11118</v>
-      </c>
-      <c r="I38" s="9"/>
+        <v>554161</v>
+      </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -1685,16 +1509,16 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="6">
-        <v>176917</v>
+        <v>966338</v>
       </c>
       <c r="C39" s="6">
-        <v>337591</v>
+        <v>1820276</v>
       </c>
       <c r="D39" s="6">
-        <v>554161</v>
+        <v>2978463</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -1707,17 +1531,18 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6">
-        <v>966338</v>
+        <v>18534</v>
       </c>
       <c r="C40" s="6">
-        <v>1820276</v>
+        <v>41242</v>
       </c>
       <c r="D40" s="6">
-        <v>2978463</v>
-      </c>
+        <v>70248</v>
+      </c>
+      <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -1729,16 +1554,16 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6">
-        <v>18534</v>
+        <v>52875</v>
       </c>
       <c r="C41" s="6">
-        <v>41242</v>
+        <v>109635</v>
       </c>
       <c r="D41" s="6">
-        <v>70248</v>
+        <v>181648</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -1752,16 +1577,16 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6">
-        <v>52875</v>
+        <v>121625</v>
       </c>
       <c r="C42" s="6">
-        <v>109635</v>
+        <v>217933</v>
       </c>
       <c r="D42" s="6">
-        <v>181648</v>
+        <v>340387</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1775,16 +1600,16 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6">
-        <v>121625</v>
+        <v>5485</v>
       </c>
       <c r="C43" s="6">
-        <v>217933</v>
+        <v>9547</v>
       </c>
       <c r="D43" s="6">
-        <v>340387</v>
+        <v>17098</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -1797,17 +1622,17 @@
       <c r="Q43" s="9"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="6">
-        <v>5485</v>
-      </c>
-      <c r="C44" s="6">
-        <v>9547</v>
-      </c>
-      <c r="D44" s="6">
-        <v>17098</v>
+      <c r="A44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7">
+        <v>306602</v>
+      </c>
+      <c r="C44" s="7">
+        <v>585245</v>
+      </c>
+      <c r="D44" s="7">
+        <v>892836</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -1820,17 +1645,17 @@
       <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="7">
-        <v>306602</v>
-      </c>
-      <c r="C45" s="7">
-        <v>585245</v>
-      </c>
-      <c r="D45" s="7">
-        <v>892836</v>
+      <c r="A45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6">
+        <v>26342</v>
+      </c>
+      <c r="C45" s="6">
+        <v>56909</v>
+      </c>
+      <c r="D45" s="6">
+        <v>89289</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -1844,16 +1669,16 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6">
-        <v>26342</v>
+        <v>5609</v>
       </c>
       <c r="C46" s="6">
-        <v>56909</v>
+        <v>9140</v>
       </c>
       <c r="D46" s="6">
-        <v>89289</v>
+        <v>13453</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -1867,16 +1692,16 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="6">
-        <v>5609</v>
+        <v>17492</v>
       </c>
       <c r="C47" s="6">
-        <v>9140</v>
+        <v>37886</v>
       </c>
       <c r="D47" s="6">
-        <v>13453</v>
+        <v>58733</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -1888,18 +1713,18 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="6">
-        <v>17492</v>
+        <v>104593</v>
       </c>
       <c r="C48" s="6">
-        <v>37886</v>
+        <v>178595</v>
       </c>
       <c r="D48" s="6">
-        <v>58733</v>
+        <v>234267</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -1911,18 +1736,18 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="6">
-        <v>104593</v>
+        <v>4200</v>
       </c>
       <c r="C49" s="6">
-        <v>178595</v>
+        <v>9855</v>
       </c>
       <c r="D49" s="6">
-        <v>234267</v>
+        <v>17252</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -1935,18 +1760,10 @@
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="6">
-        <v>4200</v>
-      </c>
-      <c r="C50" s="6">
-        <v>9855</v>
-      </c>
-      <c r="D50" s="6">
-        <v>17252</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -1958,18 +1775,10 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="6">
-        <v>6717</v>
-      </c>
-      <c r="C51" s="6">
-        <v>13910</v>
-      </c>
-      <c r="D51" s="6">
-        <v>25687</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -1981,18 +1790,10 @@
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="6">
-        <v>141649</v>
-      </c>
-      <c r="C52" s="6">
-        <v>278950</v>
-      </c>
-      <c r="D52" s="6">
-        <v>454155</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -2003,19 +1804,11 @@
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="7">
-        <v>1266485</v>
-      </c>
-      <c r="C53" s="7">
-        <v>2418617</v>
-      </c>
-      <c r="D53" s="7">
-        <v>3727903</v>
-      </c>
+    <row r="53" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -2026,19 +1819,11 @@
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
     </row>
-    <row r="54" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="6">
-        <v>175328</v>
-      </c>
-      <c r="C54" s="6">
-        <v>318169</v>
-      </c>
-      <c r="D54" s="6">
-        <v>482265</v>
-      </c>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -2050,18 +1835,10 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="6">
-        <v>20197</v>
-      </c>
-      <c r="C55" s="6">
-        <v>35652</v>
-      </c>
-      <c r="D55" s="6">
-        <v>46236</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -2073,18 +1850,10 @@
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="6">
-        <v>15269</v>
-      </c>
-      <c r="C56" s="6">
-        <v>33284</v>
-      </c>
-      <c r="D56" s="6">
-        <v>48290</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -2096,18 +1865,10 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="6">
-        <v>282448</v>
-      </c>
-      <c r="C57" s="6">
-        <v>558798</v>
-      </c>
-      <c r="D57" s="6">
-        <v>873154</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -2119,18 +1880,10 @@
       <c r="Q57" s="9"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="6">
-        <v>64741</v>
-      </c>
-      <c r="C58" s="6">
-        <v>125120</v>
-      </c>
-      <c r="D58" s="6">
-        <v>198744</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -2142,18 +1895,10 @@
       <c r="Q58" s="9"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="6">
-        <v>67564</v>
-      </c>
-      <c r="C59" s="6">
-        <v>126823</v>
-      </c>
-      <c r="D59" s="6">
-        <v>192844</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -2165,18 +1910,10 @@
       <c r="Q59" s="9"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="6">
-        <v>80853</v>
-      </c>
-      <c r="C60" s="6">
-        <v>159018</v>
-      </c>
-      <c r="D60" s="6">
-        <v>252668</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -2188,18 +1925,10 @@
       <c r="Q60" s="9"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="6">
-        <v>53627</v>
-      </c>
-      <c r="C61" s="6">
-        <v>99755</v>
-      </c>
-      <c r="D61" s="6">
-        <v>152798</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -2211,18 +1940,10 @@
       <c r="Q61" s="9"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="6">
-        <v>215003</v>
-      </c>
-      <c r="C62" s="6">
-        <v>401676</v>
-      </c>
-      <c r="D62" s="6">
-        <v>614290</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -2234,18 +1955,10 @@
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="6">
-        <v>51043</v>
-      </c>
-      <c r="C63" s="6">
-        <v>84575</v>
-      </c>
-      <c r="D63" s="6">
-        <v>119142</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -2257,18 +1970,10 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="6">
-        <v>30161</v>
-      </c>
-      <c r="C64" s="6">
-        <v>59994</v>
-      </c>
-      <c r="D64" s="6">
-        <v>93828</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -2280,18 +1985,10 @@
       <c r="Q64" s="9"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="6">
-        <v>100455</v>
-      </c>
-      <c r="C65" s="6">
-        <v>205892</v>
-      </c>
-      <c r="D65" s="6">
-        <v>321246</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -2303,18 +2000,10 @@
       <c r="Q65" s="9"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="6">
-        <v>50518</v>
-      </c>
-      <c r="C66" s="6">
-        <v>91297</v>
-      </c>
-      <c r="D66" s="6">
-        <v>146728</v>
-      </c>
+      <c r="A66" s="4"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -2326,18 +2015,10 @@
       <c r="Q66" s="9"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="6">
-        <v>59278</v>
-      </c>
-      <c r="C67" s="6">
-        <v>118564</v>
-      </c>
-      <c r="D67" s="6">
-        <v>185670</v>
-      </c>
+      <c r="A67" s="3"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -2349,18 +2030,10 @@
       <c r="Q67" s="9"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="7">
-        <v>543735</v>
-      </c>
-      <c r="C68" s="7">
-        <v>1072118</v>
-      </c>
-      <c r="D68" s="7">
-        <v>1695641</v>
-      </c>
+      <c r="A68" s="4"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -2372,18 +2045,10 @@
       <c r="Q68" s="9"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="6">
-        <v>28232</v>
-      </c>
-      <c r="C69" s="6">
-        <v>50976</v>
-      </c>
-      <c r="D69" s="6">
-        <v>81164</v>
-      </c>
+      <c r="A69" s="4"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -2395,18 +2060,10 @@
       <c r="Q69" s="9"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="6">
-        <v>217660</v>
-      </c>
-      <c r="C70" s="6">
-        <v>424019</v>
-      </c>
-      <c r="D70" s="6">
-        <v>662140</v>
-      </c>
+      <c r="A70" s="4"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -2418,18 +2075,10 @@
       <c r="Q70" s="9"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" s="6">
-        <v>173239</v>
-      </c>
-      <c r="C71" s="6">
-        <v>360650</v>
-      </c>
-      <c r="D71" s="6">
-        <v>586782</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -2441,18 +2090,10 @@
       <c r="Q71" s="9"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="6">
-        <v>65242</v>
-      </c>
-      <c r="C72" s="6">
-        <v>135919</v>
-      </c>
-      <c r="D72" s="6">
-        <v>219689</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -2464,18 +2105,10 @@
       <c r="Q72" s="9"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="6">
-        <v>19233</v>
-      </c>
-      <c r="C73" s="6">
-        <v>45851</v>
-      </c>
-      <c r="D73" s="6">
-        <v>78638</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -2486,19 +2119,11 @@
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
     </row>
-    <row r="74" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" s="6">
-        <v>88764</v>
-      </c>
-      <c r="C74" s="6">
-        <v>178880</v>
-      </c>
-      <c r="D74" s="6">
-        <v>288455</v>
-      </c>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -2509,19 +2134,11 @@
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75" s="6">
-        <v>124604</v>
-      </c>
-      <c r="C75" s="6">
-        <v>236473</v>
-      </c>
-      <c r="D75" s="6">
-        <v>365555</v>
-      </c>
+    <row r="75" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -2532,19 +2149,11 @@
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
     </row>
-    <row r="76" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="7">
-        <v>849364</v>
-      </c>
-      <c r="C76" s="7">
-        <v>1733969</v>
-      </c>
-      <c r="D76" s="7">
-        <v>2712548</v>
-      </c>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -2555,19 +2164,11 @@
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="6">
-        <v>19125</v>
-      </c>
-      <c r="C77" s="6">
-        <v>61753</v>
-      </c>
-      <c r="D77" s="6">
-        <v>107896</v>
-      </c>
+    <row r="77" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
@@ -2578,19 +2179,11 @@
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
     </row>
-    <row r="78" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" s="6">
-        <v>3321</v>
-      </c>
-      <c r="C78" s="6">
-        <v>6087</v>
-      </c>
-      <c r="D78" s="6">
-        <v>9467</v>
-      </c>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -2602,18 +2195,10 @@
       <c r="Q78" s="9"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="6">
-        <v>46896</v>
-      </c>
-      <c r="C79" s="6">
-        <v>92561</v>
-      </c>
-      <c r="D79" s="6">
-        <v>148243</v>
-      </c>
+      <c r="A79" s="4"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
@@ -2625,18 +2210,10 @@
       <c r="Q79" s="9"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" s="6">
-        <v>111837</v>
-      </c>
-      <c r="C80" s="6">
-        <v>232808</v>
-      </c>
-      <c r="D80" s="6">
-        <v>366341</v>
-      </c>
+      <c r="A80" s="4"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -2648,18 +2225,10 @@
       <c r="Q80" s="9"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="6">
-        <v>114640</v>
-      </c>
-      <c r="C81" s="6">
-        <v>223213</v>
-      </c>
-      <c r="D81" s="6">
-        <v>342975</v>
-      </c>
+      <c r="A81" s="4"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -2671,18 +2240,10 @@
       <c r="Q81" s="9"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" s="6">
-        <v>114442</v>
-      </c>
-      <c r="C82" s="6">
-        <v>234818</v>
-      </c>
-      <c r="D82" s="6">
-        <v>353496</v>
-      </c>
+      <c r="A82" s="4"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -2694,18 +2255,10 @@
       <c r="Q82" s="9"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" s="6">
-        <v>140083</v>
-      </c>
-      <c r="C83" s="6">
-        <v>274521</v>
-      </c>
-      <c r="D83" s="6">
-        <v>429210</v>
-      </c>
+      <c r="A83" s="4"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
@@ -2717,18 +2270,10 @@
       <c r="Q83" s="9"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84" s="6">
-        <v>160405</v>
-      </c>
-      <c r="C84" s="6">
-        <v>329584</v>
-      </c>
-      <c r="D84" s="6">
-        <v>534817</v>
-      </c>
+      <c r="A84" s="4"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -2740,18 +2285,10 @@
       <c r="Q84" s="9"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="6">
-        <v>95478</v>
-      </c>
-      <c r="C85" s="6">
-        <v>187190</v>
-      </c>
-      <c r="D85" s="6">
-        <v>266704</v>
-      </c>
+      <c r="A85" s="4"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
@@ -2763,18 +2300,10 @@
       <c r="Q85" s="9"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="6">
-        <v>43137</v>
-      </c>
-      <c r="C86" s="6">
-        <v>91434</v>
-      </c>
-      <c r="D86" s="6">
-        <v>153399</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -2786,18 +2315,10 @@
       <c r="Q86" s="9"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" s="7">
-        <v>394380</v>
-      </c>
-      <c r="C87" s="7">
-        <v>784801</v>
-      </c>
-      <c r="D87" s="7">
-        <v>1227726</v>
-      </c>
+      <c r="A87" s="4"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -2809,18 +2330,10 @@
       <c r="Q87" s="9"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" s="6">
-        <v>58323</v>
-      </c>
-      <c r="C88" s="6">
-        <v>105470</v>
-      </c>
-      <c r="D88" s="6">
-        <v>170294</v>
-      </c>
+      <c r="A88" s="4"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -2832,18 +2345,10 @@
       <c r="Q88" s="9"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B89" s="6">
-        <v>15257</v>
-      </c>
-      <c r="C89" s="6">
-        <v>34553</v>
-      </c>
-      <c r="D89" s="6">
-        <v>56062</v>
-      </c>
+      <c r="A89" s="4"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -2854,19 +2359,11 @@
       <c r="P89" s="9"/>
       <c r="Q89" s="9"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" s="6">
-        <v>21330</v>
-      </c>
-      <c r="C90" s="6">
-        <v>38239</v>
-      </c>
-      <c r="D90" s="6">
-        <v>58969</v>
-      </c>
+    <row r="90" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -2877,19 +2374,11 @@
       <c r="P90" s="9"/>
       <c r="Q90" s="9"/>
     </row>
-    <row r="91" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91" s="6">
-        <v>45114</v>
-      </c>
-      <c r="C91" s="6">
-        <v>87634</v>
-      </c>
-      <c r="D91" s="6">
-        <v>134114</v>
-      </c>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -2901,18 +2390,10 @@
       <c r="Q91" s="9"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B92" s="6">
-        <v>97427</v>
-      </c>
-      <c r="C92" s="6">
-        <v>187982</v>
-      </c>
-      <c r="D92" s="6">
-        <v>298625</v>
-      </c>
+      <c r="A92" s="4"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -2924,18 +2405,10 @@
       <c r="Q92" s="9"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B93" s="6">
-        <v>81146</v>
-      </c>
-      <c r="C93" s="6">
-        <v>161710</v>
-      </c>
-      <c r="D93" s="6">
-        <v>248695</v>
-      </c>
+      <c r="A93" s="4"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
@@ -2947,18 +2420,10 @@
       <c r="Q93" s="9"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="6">
-        <v>30219</v>
-      </c>
-      <c r="C94" s="6">
-        <v>65200</v>
-      </c>
-      <c r="D94" s="6">
-        <v>98315</v>
-      </c>
+      <c r="A94" s="4"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -2970,18 +2435,10 @@
       <c r="Q94" s="9"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" s="6">
-        <v>7026</v>
-      </c>
-      <c r="C95" s="6">
-        <v>19845</v>
-      </c>
-      <c r="D95" s="6">
-        <v>29722</v>
-      </c>
+      <c r="A95" s="4"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
@@ -2993,18 +2450,10 @@
       <c r="Q95" s="9"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" s="6">
-        <v>32346</v>
-      </c>
-      <c r="C96" s="6">
-        <v>70232</v>
-      </c>
-      <c r="D96" s="6">
-        <v>106718</v>
-      </c>
+      <c r="A96" s="4"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -3016,18 +2465,10 @@
       <c r="Q96" s="9"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="6">
-        <v>4075</v>
-      </c>
-      <c r="C97" s="6">
-        <v>8692</v>
-      </c>
-      <c r="D97" s="6">
-        <v>13495</v>
-      </c>
+      <c r="A97" s="4"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -3039,18 +2480,10 @@
       <c r="Q97" s="9"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="6">
-        <v>2117</v>
-      </c>
-      <c r="C98" s="6">
-        <v>5244</v>
-      </c>
-      <c r="D98" s="6">
-        <v>12717</v>
-      </c>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -3062,10 +2495,6 @@
       <c r="Q98" s="9"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
@@ -3098,7 +2527,7 @@
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -3109,20 +2538,9 @@
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
     </row>
-    <row r="103" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="9"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A98:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
